--- a/data/ai_usage.xlsx
+++ b/data/ai_usage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kruppajo/work/GitHub/jkruppa.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7606D3C3-9547-ED4A-A7A1-0655EC52C868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2A14FA-11F3-CE4F-BAE5-E614D2EFD6B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5080" yWindow="1900" windowWidth="28240" windowHeight="17240" xr2:uid="{80E98799-07B3-DA49-BB34-5967EAA7A255}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>lang</t>
   </si>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82AF6D1-5A12-BF40-995B-07E988537899}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -507,6 +507,14 @@
         <v>3</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>16.07</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
